--- a/docs/assets/disciplinas/LOB1047.xlsx
+++ b/docs/assets/disciplinas/LOB1047.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,9 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Levar os alunos a
-1. conhecer mecanismos discursivos para a elaboração de monografias, trabalhos de fim de curso  e projetos de pesquisa e
-2. dominar procedimentos para apresentação de trabalho em congressos e elaboração de artigos para publicação.</t>
+    <t>5840514 - Graziela Zamponi</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -81,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840514 - Graziela Zamponi</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Elaboração de textos acadêmicos: projetos de pesquisa, monografias, TCC para publicação e apresentação em eventos científicos.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -96,15 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1.  Projeto de pesquisa, monografias e TCC
-1.1 - Elementos constitutivos
-1.2 - Etapas de elaboração
-2.  O processo de divulgação do trabalho científico
-2.1 - O percurso de divulgação da pesquisa
-2.2 - Procedimentos para a apresentação pública de trabalhos científicos 
-2.3 - Etapas de produção de artigo para publicação</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -114,31 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Trabalhos em grupos, Apresentação Oral e Redação de Projetos  Científicos</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>MF = (N1+N2)/2, onde N1  =  Apresentação oral de um projeto de pesquisa e/ou pesquisa já finalizada e N 2 = Elaboração escrita de um projeto de pesquisa e seu desenvolvimento em artigo e/ou monografia/TCC</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Ao aluno que não alcançar a média 5,0 (cinco) no final do período letivo será dada uma nova oportunidade para a reelaboração dos trabalhos.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>ANDRADE, Maria Margarida de. Introdução à metodologia do trabalho científico. 10.ed. São Paulo: Atlas, 2010.
-FARACO, Carlos Alberto; TEZZA, Cristóvão. Oficina de texto.  6. ed. Petrópolis: Vozes, 2008.
-MACHADO, A.R (coord.); LOUSADA, E.; ABREU-TARDELLI, L. S. Resenha. São Paulo: Parábola Editorial, 2004 a.
-______.  Resumo.  São Paulo: Parábola Editorial, 2004 b.
-______.  Planejar gêneros acadêmicos.  São Paulo: Parábola Editorial, 2009.
-SERAFINI, Maria José. Como escrever textos. 5.ed. São Paulo: Globo, 1992.
-SEVERINO, Antonio Joaquim. Metodologia do trabalho científico. 23.ed. São Paulo: Cortez, 2009.</t>
   </si>
 </sst>
 </file>
@@ -494,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,93 +596,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1047.xlsx
+++ b/docs/assets/disciplinas/LOB1047.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,24 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Levar os alunos a
+1. conhecer mecanismos discursivos para a elaboração de monografias, trabalhos de fim de curso  e projetos de pesquisa e
+2. dominar procedimentos para apresentação de trabalho em congressos e elaboração de artigos para publicação.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840514 - Graziela Zamponi</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Elaboração de textos acadêmicos: projetos de pesquisa, monografias, TCC para publicação e apresentação em eventos científicos.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +96,15 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1.  Projeto de pesquisa, monografias e TCC
+1.1 - Elementos constitutivos
+1.2 - Etapas de elaboração
+2.  O processo de divulgação do trabalho científico
+2.1 - O percurso de divulgação da pesquisa
+2.2 - Procedimentos para a apresentação pública de trabalhos científicos 
+2.3 - Etapas de produção de artigo para publicação</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +114,31 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Trabalhos em grupos, Apresentação Oral e Redação de Projetos  Científicos</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Trabalhos em grupos, Apresentação Oral e Redação de Projetos  Científicos</t>
+    <t>MF = (N1+N2)/2, onde N1  =  Apresentação oral de um projeto de pesquisa e/ou pesquisa já finalizada e N 2 = Elaboração escrita de um projeto de pesquisa e seu desenvolvimento em artigo e/ou monografia/TCC</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>MF = (N1+N2)/2, onde N1  =  Apresentação oral de um projeto de pesquisa e/ou pesquisa já finalizada e N 2 = Elaboração escrita de um projeto de pesquisa e seu desenvolvimento em artigo e/ou monografia/TCC</t>
+    <t>Ao aluno que não alcançar a média 5,0 (cinco) no final do período letivo será dada uma nova oportunidade para a reelaboração dos trabalhos.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Ao aluno que não alcançar a média 5,0 (cinco) no final do período letivo será dada uma nova oportunidade para a reelaboração dos trabalhos.</t>
+    <t>ANDRADE, Maria Margarida de. Introdução à metodologia do trabalho científico. 10.ed. São Paulo: Atlas, 2010.
+FARACO, Carlos Alberto; TEZZA, Cristóvão. Oficina de texto.  6. ed. Petrópolis: Vozes, 2008.
+MACHADO, A.R (coord.); LOUSADA, E.; ABREU-TARDELLI, L. S. Resenha. São Paulo: Parábola Editorial, 2004 a.
+______.  Resumo.  São Paulo: Parábola Editorial, 2004 b.
+______.  Planejar gêneros acadêmicos.  São Paulo: Parábola Editorial, 2009.
+SERAFINI, Maria José. Como escrever textos. 5.ed. São Paulo: Globo, 1992.
+SEVERINO, Antonio Joaquim. Metodologia do trabalho científico. 23.ed. São Paulo: Cortez, 2009.</t>
   </si>
 </sst>
 </file>
@@ -471,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -596,85 +619,93 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
